--- a/src/xgboost/pruebas/hiperBO_6.xlsx
+++ b/src/xgboost/pruebas/hiperBO_6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="143">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">20220918 190459</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 001239</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 062602</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t xml:space="preserve">20220918 034356</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 031122</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 012949</t>
   </si>
   <si>
@@ -127,6 +133,12 @@
     <t xml:space="preserve">20220918 113210</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 085624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220919 071507</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 040143</t>
   </si>
   <si>
@@ -145,12 +157,18 @@
     <t xml:space="preserve">20220918 110345</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 034942</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 152501</t>
   </si>
   <si>
     <t xml:space="preserve">20220918 043557</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 081909</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 235115</t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t xml:space="preserve">20220918 024513</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 015613</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 135525</t>
   </si>
   <si>
@@ -190,6 +211,9 @@
     <t xml:space="preserve">20220918 110952</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 085417</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 042531</t>
   </si>
   <si>
@@ -211,12 +235,21 @@
     <t xml:space="preserve">20220918 002721</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 093820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220919 052255</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 210745</t>
   </si>
   <si>
     <t xml:space="preserve">20220918 132025</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 013256</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 204730</t>
   </si>
   <si>
@@ -232,6 +265,9 @@
     <t xml:space="preserve">20220918 061832</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 024713</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 105200</t>
   </si>
   <si>
@@ -241,6 +277,15 @@
     <t xml:space="preserve">20220917 171321</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 042918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220919 101909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220919 084939</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220918 181632</t>
   </si>
   <si>
@@ -268,9 +313,15 @@
     <t xml:space="preserve">20220918 180651</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 055614</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 165042</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 065806</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 220059</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t xml:space="preserve">20220918 090427</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 022524</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 223052</t>
   </si>
   <si>
@@ -316,6 +370,9 @@
     <t xml:space="preserve">20220917 161201</t>
   </si>
   <si>
+    <t xml:space="preserve">20220919 015212</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220917 144332</t>
   </si>
   <si>
@@ -353,6 +410,9 @@
   </si>
   <si>
     <t xml:space="preserve">20220917 160855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220919 085836</t>
   </si>
   <si>
     <t xml:space="preserve">20220917 155618</t>
@@ -484,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,28 +772,28 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.0909395148617141</v>
+        <v>0.0653311809029408</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.999921704329361</v>
+        <v>0.998221857581898</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.0195002015849335</v>
+        <v>0.020304989939424</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>26694000</v>
+        <v>26726000</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0160218182968712</v>
+        <v>0.0909395148617141</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.999939229783073</v>
+        <v>0.999921704329361</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9</v>
@@ -780,16 +840,16 @@
         <v>2</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.0193972432918983</v>
+        <v>0.0195002015849335</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>2738</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>26632000</v>
+        <v>26694000</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,28 +884,28 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.010031450534497</v>
+        <v>0.0160218182968712</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.360441172580104</v>
+        <v>0.999939229783073</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.0220790827638562</v>
+        <v>0.0193972432918983</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>2828</v>
+        <v>2738</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>26606000</v>
+        <v>26632000</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,28 +940,28 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.0100994096539741</v>
+        <v>0.010031450534497</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.20220229385018</v>
+        <v>0.360441172580104</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.0270824296081385</v>
+        <v>0.0220790827638562</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3042</v>
+        <v>2828</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>26580000</v>
+        <v>26606000</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,28 +996,28 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.010115243990879</v>
+        <v>0.0100994096539741</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.999841778394115</v>
+        <v>0.20220229385018</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.01877441474574</v>
+        <v>0.0270824296081385</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>888</v>
+        <v>3042</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>26518000</v>
+        <v>26580000</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,28 +1052,28 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.0101608153646319</v>
+        <v>0.010115243990879</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.20109634075655</v>
+        <v>0.999841778394115</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.0236048546972945</v>
+        <v>0.01877441474574</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>2063</v>
+        <v>888</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>26510000</v>
+        <v>26518000</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,28 +1108,28 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.0106563746246541</v>
+        <v>0.0101608153646319</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.371946162444274</v>
+        <v>0.20109634075655</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.0259899497513297</v>
+        <v>0.0236048546972945</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1783</v>
+        <v>2063</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>26494000</v>
+        <v>26510000</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.0101091349376775</v>
+        <v>0.0106563746246541</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.499248772141251</v>
+        <v>0.371946162444274</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>3</v>
@@ -1116,16 +1176,16 @@
         <v>2</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.0233069428154888</v>
+        <v>0.0259899497513297</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1638</v>
+        <v>1783</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>26412000</v>
+        <v>26494000</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,28 +1220,28 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.149581778957358</v>
+        <v>0.0101597282347509</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.374494948894486</v>
+        <v>0.379353922830944</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.0218327595576472</v>
+        <v>0.0215153900386316</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>327</v>
+        <v>2956</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>26388000</v>
+        <v>26428000</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,28 +1276,28 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.0753976083593133</v>
+        <v>0.0101091349376775</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.360121057004703</v>
+        <v>0.499248772141251</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.0215007644549468</v>
+        <v>0.0233069428154888</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>389</v>
+        <v>1638</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>26332000</v>
+        <v>26412000</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,28 +1332,28 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.0962912061698186</v>
+        <v>0.149581778957358</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.999950415590066</v>
+        <v>0.374494948894486</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.0223567096574519</v>
+        <v>0.0218327595576472</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>26306000</v>
+        <v>26388000</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,28 +1388,28 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.0105692714375247</v>
+        <v>0.0753976083593133</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.211621310800818</v>
+        <v>0.360121057004703</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.0221885373919964</v>
+        <v>0.0215007644549468</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>2396</v>
+        <v>389</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>26266000</v>
+        <v>26332000</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,28 +1444,28 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.0841040544159843</v>
+        <v>0.0962912061698186</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.99899374215702</v>
+        <v>0.999950415590066</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.0185006722041474</v>
+        <v>0.0223567096574519</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>426</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>26238000</v>
+        <v>26306000</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,28 +1500,28 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.0309295875611725</v>
+        <v>0.0105692714375247</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.999345454590962</v>
+        <v>0.211621310800818</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.0199733529388271</v>
+        <v>0.0221885373919964</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>1068</v>
+        <v>2396</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>26220000</v>
+        <v>26266000</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,28 +1556,28 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.0586512516248121</v>
+        <v>0.0841040544159843</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.929755150936777</v>
+        <v>0.99899374215702</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.0222586897307339</v>
+        <v>0.0185006722041474</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>540</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>26216000</v>
+        <v>26238000</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.122780523184103</v>
+        <v>0.144117801622706</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.367702056594659</v>
+        <v>0.364417322479221</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.0208823744581776</v>
+        <v>0.0220080257884363</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>26188000</v>
+        <v>26234000</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,28 +1668,28 @@
         <v>1</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.0989785854579361</v>
+        <v>0.0102102251903385</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.381792173426373</v>
+        <v>0.200757219461273</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.0232147207374149</v>
+        <v>0.0244224233692326</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>268</v>
+        <v>2769</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>26150000</v>
+        <v>26226000</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,28 +1724,28 @@
         <v>1</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.0101107167394593</v>
+        <v>0.0309295875611725</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.415623484763716</v>
+        <v>0.999345454590962</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.021173292581469</v>
+        <v>0.0199733529388271</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>1796</v>
+        <v>1068</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>26126000</v>
+        <v>26220000</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,28 +1780,28 @@
         <v>1</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.0367036661240648</v>
+        <v>0.0586512516248121</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.999487506498146</v>
+        <v>0.929755150936777</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.0210314519214539</v>
+        <v>0.0222586897307339</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>26064000</v>
+        <v>26216000</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,28 +1836,28 @@
         <v>1</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.167938069204474</v>
+        <v>0.122780523184103</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.373369563755507</v>
+        <v>0.367702056594659</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.0190171608665276</v>
+        <v>0.0208823744581776</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>25980000</v>
+        <v>26188000</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.0321808231118093</v>
+        <v>0.0989785854579361</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.999664321977958</v>
+        <v>0.381792173426373</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>10</v>
@@ -1844,16 +1904,16 @@
         <v>2</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.025551301323547</v>
+        <v>0.0232147207374149</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>543</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>25972000</v>
+        <v>26150000</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,28 +1948,28 @@
         <v>1</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.0100089170107629</v>
+        <v>0.0101107167394593</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.703692331020743</v>
+        <v>0.415623484763716</v>
       </c>
       <c r="M25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N25" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="O25" s="0" t="n">
-        <v>0.0269959187934296</v>
+        <v>0.021173292581469</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>1916</v>
+        <v>1796</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>25936000</v>
+        <v>26126000</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,28 +2004,28 @@
         <v>1</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.0100587889433347</v>
+        <v>0.0367036661240648</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.230479759807738</v>
+        <v>0.999487506498146</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.0192313337502056</v>
+        <v>0.0210314519214539</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>2602</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>25928000</v>
+        <v>26064000</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,28 +2060,28 @@
         <v>1</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.0100005587221574</v>
+        <v>0.0111833580856254</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.216292446777424</v>
+        <v>0.376814493907772</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.0263526979151526</v>
+        <v>0.021792875673261</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>1442</v>
+        <v>2637</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>25898000</v>
+        <v>26026000</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,28 +2116,28 @@
         <v>1</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.0104246117133076</v>
+        <v>0.167938069204474</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.999172967977069</v>
+        <v>0.373369563755507</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.0306388205762778</v>
+        <v>0.0190171608665276</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>1857</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>25880000</v>
+        <v>25980000</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,28 +2172,28 @@
         <v>1</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.0104128019259114</v>
+        <v>0.0321808231118093</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.442610558704476</v>
+        <v>0.999664321977958</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.0187383676044818</v>
+        <v>0.025551301323547</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>25862000</v>
+        <v>25972000</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,28 +2228,28 @@
         <v>1</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.0101132218734298</v>
+        <v>0.0100212322497034</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.999999434948014</v>
+        <v>0.985519205909675</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.0175724068793931</v>
+        <v>0.0176954516608041</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>563</v>
+        <v>4079</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>25860000</v>
+        <v>25956000</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,28 +2284,28 @@
         <v>1</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.138607908855831</v>
+        <v>0.0100089170107629</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.508473658209393</v>
+        <v>0.703692331020743</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.0203879038567765</v>
+        <v>0.0269959187934296</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>141</v>
+        <v>1916</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>25848000</v>
+        <v>25936000</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,28 +2340,28 @@
         <v>1</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.0775764956034325</v>
+        <v>0.0100587889433347</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.580938493746445</v>
+        <v>0.230479759807738</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.0229951678050029</v>
+        <v>0.0192313337502056</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>246</v>
+        <v>2602</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>25824000</v>
+        <v>25928000</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,28 +2396,28 @@
         <v>1</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.0207047058001107</v>
+        <v>0.0100005587221574</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.667017235588713</v>
+        <v>0.216292446777424</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.0211175867363194</v>
+        <v>0.0263526979151526</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>1795</v>
+        <v>1442</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>25808000</v>
+        <v>25898000</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,28 +2452,28 @@
         <v>1</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.0100081903602092</v>
+        <v>0.142392670420743</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.347181686715352</v>
+        <v>0.999841038902295</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.0217297812881518</v>
+        <v>0.0208445057752987</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>422</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>25792000</v>
+        <v>25896000</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,28 +2508,28 @@
         <v>1</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.0100363357047264</v>
+        <v>0.0104246117133076</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.274282884661716</v>
+        <v>0.999172967977069</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.0199467053814678</v>
+        <v>0.0306388205762778</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>1878</v>
+        <v>1857</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>25760000</v>
+        <v>25880000</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,28 +2564,28 @@
         <v>1</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.010135475401232</v>
+        <v>0.0104128019259114</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.593697932896534</v>
+        <v>0.442610558704476</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.0203628872167568</v>
+        <v>0.0187383676044818</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>294</v>
+        <v>517</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>25754000</v>
+        <v>25862000</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,28 +2620,28 @@
         <v>1</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.0311874436055103</v>
+        <v>0.0101132218734298</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.373851083353339</v>
+        <v>0.999999434948014</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.0275135213557313</v>
+        <v>0.0175724068793931</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>25704000</v>
+        <v>25860000</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,28 +2676,28 @@
         <v>1</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.0103775247690437</v>
+        <v>0.138607908855831</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.202192736271702</v>
+        <v>0.508473658209393</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.020206671195983</v>
+        <v>0.0203879038567765</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>25686000</v>
+        <v>25848000</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,28 +2732,28 @@
         <v>1</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.0127177302493219</v>
+        <v>0.0775764956034325</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.391597856220635</v>
+        <v>0.580938493746445</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.0213451736706318</v>
+        <v>0.0229951678050029</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>25664000</v>
+        <v>25824000</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,28 +2788,28 @@
         <v>1</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.142394242506414</v>
+        <v>0.0207047058001107</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.200394268481895</v>
+        <v>0.667017235588713</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.0216285823098866</v>
+        <v>0.0211175867363194</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>289</v>
+        <v>1795</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>25612000</v>
+        <v>25808000</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,28 +2844,28 @@
         <v>1</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.0100879965690109</v>
+        <v>0.0100081903602092</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.454216523110245</v>
+        <v>0.347181686715352</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.0192804593790237</v>
+        <v>0.0217297812881518</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>563</v>
+        <v>422</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>25604000</v>
+        <v>25792000</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,28 +2900,28 @@
         <v>1</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.0773368345724245</v>
+        <v>0.0100363357047264</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.972122717489466</v>
+        <v>0.274282884661716</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.0308527643200483</v>
+        <v>0.0199467053814678</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>281</v>
+        <v>1878</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>25564000</v>
+        <v>25760000</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,28 +2956,28 @@
         <v>1</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.0100063752220921</v>
+        <v>0.010135475401232</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.398556331169074</v>
+        <v>0.593697932896534</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>30</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.017188039049295</v>
+        <v>0.0203628872167568</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>548</v>
+        <v>294</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>25526000</v>
+        <v>25754000</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,28 +3012,28 @@
         <v>1</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.0100801490517449</v>
+        <v>0.0311874436055103</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.587601809125685</v>
+        <v>0.373851083353339</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.0311887682180073</v>
+        <v>0.0275135213557313</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>2046</v>
+        <v>655</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>25512000</v>
+        <v>25704000</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,28 +3068,28 @@
         <v>1</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.0100852020127072</v>
+        <v>0.16945220377044</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.31872028911121</v>
+        <v>0.999961172398661</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.0315347123768744</v>
+        <v>0.0212933318824389</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>711</v>
+        <v>245</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>25410000</v>
+        <v>25696000</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,28 +3124,28 @@
         <v>1</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.0100128557836321</v>
+        <v>0.0103775247690437</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.999073827016696</v>
+        <v>0.202192736271702</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.0164146174869087</v>
+        <v>0.020206671195983</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>25360000</v>
+        <v>25686000</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,28 +3180,28 @@
         <v>1</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.0100145454149837</v>
+        <v>0.0127177302493219</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.606668708935898</v>
+        <v>0.391597856220635</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.0158367321029643</v>
+        <v>0.0213451736706318</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>3876</v>
+        <v>541</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>25278000</v>
+        <v>25664000</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,28 +3236,28 @@
         <v>1</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.113309530245566</v>
+        <v>0.142394242506414</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.999648895185419</v>
+        <v>0.200394268481895</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0.0188516179280721</v>
+        <v>0.0216285823098866</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>25238000</v>
+        <v>25612000</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,28 +3292,28 @@
         <v>1</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.0101135007473884</v>
+        <v>0.0100879965690109</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0.200684657126146</v>
+        <v>0.454216523110245</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0.0213207229635429</v>
+        <v>0.0192804593790237</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>25214000</v>
+        <v>25604000</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,28 +3348,28 @@
         <v>1</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.0865356722150203</v>
+        <v>0.0773368345724245</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0.37333542940144</v>
+        <v>0.972122717489466</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0.0210017192274298</v>
+        <v>0.0308527643200483</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>25196000</v>
+        <v>25564000</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,28 +3404,28 @@
         <v>1</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.0101245160595823</v>
+        <v>0.0100063752220921</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0.20204339711939</v>
+        <v>0.398556331169074</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.0300306471875002</v>
+        <v>0.017188039049295</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>1204</v>
+        <v>548</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>25152000</v>
+        <v>25526000</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,28 +3460,28 @@
         <v>1</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.010138585523454</v>
+        <v>0.0100801490517449</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0.924656546595966</v>
+        <v>0.587601809125685</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>0.0196013704529761</v>
+        <v>0.0311887682180073</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>641</v>
+        <v>2046</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>25116000</v>
+        <v>25512000</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,28 +3516,28 @@
         <v>1</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.0153592039710399</v>
+        <v>0.0100236079609079</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>0.275903679125578</v>
+        <v>0.37122435944637</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0.0147515784592187</v>
+        <v>0.0175837735541959</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>25082000</v>
+        <v>25494000</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,28 +3572,28 @@
         <v>1</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.0113385987353977</v>
+        <v>0.0101326047088466</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0.76132713643834</v>
+        <v>0.671480227370038</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0.030954443646624</v>
+        <v>0.0167745354962366</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>1281</v>
+        <v>378</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>25062000</v>
+        <v>25486000</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,28 +3628,28 @@
         <v>1</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.147336143265853</v>
+        <v>0.0100852020127072</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>0.363713597571964</v>
+        <v>0.31872028911121</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>0.0162028790919944</v>
+        <v>0.0315347123768744</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>31</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>24784000</v>
+        <v>25410000</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,28 +3684,28 @@
         <v>1</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.010008732992714</v>
+        <v>0.0100128557836321</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0.264031376114759</v>
+        <v>0.999073827016696</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N56" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>0.0335938332904685</v>
+        <v>0.0164146174869087</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>1647</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>24760000</v>
+        <v>25360000</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,28 +3740,28 @@
         <v>1</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.299844530945827</v>
+        <v>0.0102342178406369</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>0.608852990277089</v>
+        <v>0.999150532066436</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0.02122102721994</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>25324000</v>
+      </c>
+      <c r="R57" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>0.0181673651928579</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>24756000</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,28 +3796,28 @@
         <v>1</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.217311715473966</v>
+        <v>0.0100145454149837</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>0.386782414026441</v>
+        <v>0.606668708935898</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>0.0198116661788896</v>
+        <v>0.0158367321029643</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>151</v>
+        <v>3876</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>24722000</v>
+        <v>25278000</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,28 +3852,28 @@
         <v>1</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.0102383607395738</v>
+        <v>0.113309530245566</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>0.539880153884311</v>
+        <v>0.999648895185419</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>0.0125010979362492</v>
+        <v>0.0188516179280721</v>
       </c>
       <c r="P59" s="0" t="n">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>24702000</v>
+        <v>25238000</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,28 +3908,28 @@
         <v>1</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.0105228771627404</v>
+        <v>0.0101135007473884</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>0.586871097377446</v>
+        <v>0.200684657126146</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N60" s="0" t="n">
         <v>17</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0.0125006716072113</v>
+        <v>0.0213207229635429</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>53</v>
+        <v>535</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>24688000</v>
+        <v>25214000</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,28 +3964,28 @@
         <v>1</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.273774705223195</v>
+        <v>0.0865356722150203</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>0.999849534089598</v>
+        <v>0.37333542940144</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.0178686409475134</v>
+        <v>0.0210017192274298</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>24638000</v>
+        <v>25196000</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,28 +4020,28 @@
         <v>1</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.299233441104326</v>
+        <v>0.0101245160595823</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>0.993287931018759</v>
+        <v>0.20204339711939</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>0.0192977034738822</v>
+        <v>0.0300306471875002</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>108</v>
+        <v>1204</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>24632000</v>
+        <v>25152000</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,28 +4076,28 @@
         <v>1</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.0169029313050209</v>
+        <v>0.0102772687440905</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0.999486829271297</v>
+        <v>0.697173808712679</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>0.0125449307960789</v>
+        <v>0.0322796112655118</v>
       </c>
       <c r="P63" s="0" t="n">
-        <v>980</v>
+        <v>1493</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>24584000</v>
+        <v>25142000</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,28 +4132,28 @@
         <v>1</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.0935515434761764</v>
+        <v>0.010138585523454</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0.625291695781052</v>
+        <v>0.924656546595966</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>0.0151028891829871</v>
+        <v>0.0196013704529761</v>
       </c>
       <c r="P64" s="0" t="n">
-        <v>65</v>
+        <v>641</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>24510000</v>
+        <v>25116000</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,28 +4188,28 @@
         <v>1</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.0102140676684596</v>
+        <v>0.0153592039710399</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>0.613767459036333</v>
+        <v>0.275903679125578</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>0.0125146259225395</v>
+        <v>0.0147515784592187</v>
       </c>
       <c r="P65" s="0" t="n">
-        <v>49</v>
+        <v>410</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>24410000</v>
+        <v>25082000</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,28 +4244,28 @@
         <v>1</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.299918637057814</v>
+        <v>0.0113385987353977</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>0.738207735073684</v>
+        <v>0.76132713643834</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N66" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>0.0320667942128386</v>
+        <v>0.030954443646624</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>137</v>
+        <v>1281</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>24340000</v>
+        <v>25062000</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,28 +4300,28 @@
         <v>1</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.0820417914659886</v>
+        <v>0.0101992747137343</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>0.200162880509378</v>
+        <v>0.989768983612229</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>0.0211846245849363</v>
+        <v>0.0187478004008621</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>38</v>
+        <v>2265</v>
       </c>
       <c r="Q67" s="0" t="n">
-        <v>24332000</v>
+        <v>25050000</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,28 +4356,28 @@
         <v>1</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.0105199583770222</v>
+        <v>0.0101882460723015</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>0.999773775865325</v>
+        <v>0.487675016478852</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>0.032488770297912</v>
+        <v>0.022206118063406</v>
       </c>
       <c r="P68" s="0" t="n">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="Q68" s="0" t="n">
-        <v>24254000</v>
+        <v>24916000</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,28 +4412,28 @@
         <v>1</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.010001047127825</v>
+        <v>0.0100695845124326</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>0.782232548312116</v>
+        <v>0.229264627576361</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>0.0376711734947688</v>
+        <v>0.0125087560152864</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>1030</v>
+        <v>491</v>
       </c>
       <c r="Q69" s="0" t="n">
-        <v>24222000</v>
+        <v>24830000</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,28 +4468,28 @@
         <v>1</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.299896102194527</v>
+        <v>0.147336143265853</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>0.350827728319714</v>
+        <v>0.363713597571964</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O70" s="0" t="n">
-        <v>0.0277091954070929</v>
+        <v>0.0162028790919944</v>
       </c>
       <c r="P70" s="0" t="n">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="Q70" s="0" t="n">
-        <v>24200000</v>
+        <v>24784000</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,28 +4524,28 @@
         <v>1</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.0100310401067171</v>
+        <v>0.010008732992714</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>0.211187427279006</v>
+        <v>0.264031376114759</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O71" s="0" t="n">
-        <v>0.0310950056894837</v>
+        <v>0.0335938332904685</v>
       </c>
       <c r="P71" s="0" t="n">
-        <v>282</v>
+        <v>1647</v>
       </c>
       <c r="Q71" s="0" t="n">
-        <v>23958000</v>
+        <v>24760000</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,28 +4580,28 @@
         <v>1</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.0110669728418619</v>
+        <v>0.299844530945827</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>0.68059927561076</v>
+        <v>0.608852990277089</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O72" s="0" t="n">
-        <v>0.0125106524273761</v>
+        <v>0.0181673651928579</v>
       </c>
       <c r="P72" s="0" t="n">
-        <v>2434</v>
+        <v>90</v>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>23746000</v>
+        <v>24756000</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.155743968539467</v>
+        <v>0.217311715473966</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>0.399630181138236</v>
+        <v>0.386782414026441</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>10</v>
@@ -4588,16 +4648,16 @@
         <v>2</v>
       </c>
       <c r="O73" s="0" t="n">
-        <v>0.0333477957200892</v>
+        <v>0.0198116661788896</v>
       </c>
       <c r="P73" s="0" t="n">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>23714000</v>
+        <v>24722000</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,28 +4692,28 @@
         <v>1</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.0502911429055966</v>
+        <v>0.0102383607395738</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>0.485164121137932</v>
+        <v>0.539880153884311</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O74" s="0" t="n">
-        <v>0.0325018251685833</v>
+        <v>0.0125010979362492</v>
       </c>
       <c r="P74" s="0" t="n">
-        <v>58</v>
+        <v>421</v>
       </c>
       <c r="Q74" s="0" t="n">
-        <v>23334000</v>
+        <v>24702000</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,28 +4748,28 @@
         <v>1</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.010080852475653</v>
+        <v>0.0105228771627404</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>0.45244400182389</v>
+        <v>0.586871097377446</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="O75" s="0" t="n">
-        <v>0.0125556523699552</v>
+        <v>0.0125006716072113</v>
       </c>
       <c r="P75" s="0" t="n">
-        <v>2491</v>
+        <v>53</v>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>23322000</v>
+        <v>24688000</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,28 +4804,28 @@
         <v>1</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.0140193860833344</v>
+        <v>0.273774705223195</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>0.200112907253382</v>
+        <v>0.999849534089598</v>
       </c>
       <c r="M76" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O76" s="0" t="n">
-        <v>0.0126101129546173</v>
+        <v>0.0178686409475134</v>
       </c>
       <c r="P76" s="0" t="n">
-        <v>2100</v>
+        <v>119</v>
       </c>
       <c r="Q76" s="0" t="n">
-        <v>23288000</v>
+        <v>24638000</v>
       </c>
       <c r="R76" s="0" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,28 +4860,28 @@
         <v>1</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.0644160604977514</v>
+        <v>0.299233441104326</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>0.689844294879586</v>
+        <v>0.993287931018759</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N77" s="0" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O77" s="0" t="n">
-        <v>0.036056842396647</v>
+        <v>0.0192977034738822</v>
       </c>
       <c r="P77" s="0" t="n">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="Q77" s="0" t="n">
-        <v>23118000</v>
+        <v>24632000</v>
       </c>
       <c r="R77" s="0" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,28 +4916,28 @@
         <v>1</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.298998284315792</v>
+        <v>0.0169029313050209</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>0.200090400674303</v>
+        <v>0.999486829271297</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N78" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O78" s="0" t="n">
-        <v>0.0188130586692226</v>
+        <v>0.0125449307960789</v>
       </c>
       <c r="P78" s="0" t="n">
-        <v>114</v>
+        <v>980</v>
       </c>
       <c r="Q78" s="0" t="n">
-        <v>22982000</v>
+        <v>24584000</v>
       </c>
       <c r="R78" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,28 +4972,28 @@
         <v>1</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.206353757876088</v>
+        <v>0.0102375304164992</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>0.386798960790038</v>
+        <v>0.525154224461922</v>
       </c>
       <c r="M79" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N79" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O79" s="0" t="n">
-        <v>0.0255742628669638</v>
+        <v>0.0292253633591539</v>
       </c>
       <c r="P79" s="0" t="n">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="Q79" s="0" t="n">
-        <v>22950000</v>
+        <v>24550000</v>
       </c>
       <c r="R79" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,28 +5028,28 @@
         <v>1</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.0643813462881371</v>
+        <v>0.0935515434761764</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>0.652664288682863</v>
+        <v>0.625291695781052</v>
       </c>
       <c r="M80" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N80" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O80" s="0" t="n">
-        <v>0.0420094891412494</v>
+        <v>0.0151028891829871</v>
       </c>
       <c r="P80" s="0" t="n">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="Q80" s="0" t="n">
-        <v>22488000</v>
+        <v>24510000</v>
       </c>
       <c r="R80" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,28 +5084,28 @@
         <v>1</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.170502649910864</v>
+        <v>0.0105894636588336</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>0.877436125446111</v>
+        <v>0.9992509654859</v>
       </c>
       <c r="M81" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N81" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O81" s="0" t="n">
-        <v>0.0383989047701956</v>
+        <v>0.0279893072457888</v>
       </c>
       <c r="P81" s="0" t="n">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="Q81" s="0" t="n">
-        <v>22488000</v>
+        <v>24452000</v>
       </c>
       <c r="R81" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,28 +5140,28 @@
         <v>1</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.137266048859223</v>
+        <v>0.0102140676684596</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>0.260518944691867</v>
+        <v>0.613767459036333</v>
       </c>
       <c r="M82" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N82" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O82" s="0" t="n">
-        <v>0.0273357214443968</v>
+        <v>0.0125146259225395</v>
       </c>
       <c r="P82" s="0" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Q82" s="0" t="n">
-        <v>22352000</v>
+        <v>24410000</v>
       </c>
       <c r="R82" s="0" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,28 +5196,28 @@
         <v>1</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.231603562741191</v>
+        <v>0.299918637057814</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>0.354244734430686</v>
+        <v>0.738207735073684</v>
       </c>
       <c r="M83" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N83" s="0" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="O83" s="0" t="n">
-        <v>0.019753100961049</v>
+        <v>0.0320667942128386</v>
       </c>
       <c r="P83" s="0" t="n">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="Q83" s="0" t="n">
-        <v>22334000</v>
+        <v>24340000</v>
       </c>
       <c r="R83" s="0" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,28 +5252,28 @@
         <v>1</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.299948513863082</v>
+        <v>0.0820417914659886</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>0.999975809335457</v>
+        <v>0.200162880509378</v>
       </c>
       <c r="M84" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N84" s="0" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O84" s="0" t="n">
-        <v>0.0374607548018055</v>
+        <v>0.0211846245849363</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>22270000</v>
+        <v>24332000</v>
       </c>
       <c r="R84" s="0" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,28 +5308,28 @@
         <v>1</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.299991704473393</v>
+        <v>0.0105199583770222</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>0.401601607243915</v>
+        <v>0.999773775865325</v>
       </c>
       <c r="M85" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N85" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O85" s="0" t="n">
-        <v>0.012526415008278</v>
+        <v>0.032488770297912</v>
       </c>
       <c r="P85" s="0" t="n">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="Q85" s="0" t="n">
-        <v>22048000</v>
+        <v>24254000</v>
       </c>
       <c r="R85" s="0" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,28 +5364,28 @@
         <v>1</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.299975459429474</v>
+        <v>0.010001047127825</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>0.200419043523092</v>
+        <v>0.782232548312116</v>
       </c>
       <c r="M86" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N86" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O86" s="0" t="n">
-        <v>0.0154703800276314</v>
+        <v>0.0376711734947688</v>
       </c>
       <c r="P86" s="0" t="n">
-        <v>36</v>
+        <v>1030</v>
       </c>
       <c r="Q86" s="0" t="n">
-        <v>21514000</v>
+        <v>24222000</v>
       </c>
       <c r="R86" s="0" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,28 +5420,28 @@
         <v>1</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.286563551961328</v>
+        <v>0.299896102194527</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>0.645744434520602</v>
+        <v>0.350827728319714</v>
       </c>
       <c r="M87" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O87" s="0" t="n">
-        <v>0.0178993275910519</v>
+        <v>0.0277091954070929</v>
       </c>
       <c r="P87" s="0" t="n">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="Q87" s="0" t="n">
-        <v>20928000</v>
+        <v>24200000</v>
       </c>
       <c r="R87" s="0" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,28 +5476,28 @@
         <v>1</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.254939808345749</v>
+        <v>0.0100310401067171</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>0.522397442366928</v>
+        <v>0.211187427279006</v>
       </c>
       <c r="M88" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N88" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O88" s="0" t="n">
-        <v>0.0429847246182423</v>
+        <v>0.0310950056894837</v>
       </c>
       <c r="P88" s="0" t="n">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="Q88" s="0" t="n">
-        <v>20770000</v>
+        <v>23958000</v>
       </c>
       <c r="R88" s="0" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,28 +5532,28 @@
         <v>1</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.153774041322758</v>
+        <v>0.0111639096041815</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>0.832053191736341</v>
+        <v>0.953675054855146</v>
       </c>
       <c r="M89" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N89" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O89" s="0" t="n">
-        <v>0.0382495545902445</v>
+        <v>0.0412720473221742</v>
       </c>
       <c r="P89" s="0" t="n">
-        <v>19</v>
+        <v>1648</v>
       </c>
       <c r="Q89" s="0" t="n">
-        <v>20582000</v>
+        <v>23902000</v>
       </c>
       <c r="R89" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,28 +5588,28 @@
         <v>1</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.27796680620301</v>
+        <v>0.0110669728418619</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>0.747589869266376</v>
+        <v>0.68059927561076</v>
       </c>
       <c r="M90" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N90" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O90" s="0" t="n">
-        <v>0.0457778409965491</v>
+        <v>0.0125106524273761</v>
       </c>
       <c r="P90" s="0" t="n">
-        <v>49</v>
+        <v>2434</v>
       </c>
       <c r="Q90" s="0" t="n">
-        <v>20580000</v>
+        <v>23746000</v>
       </c>
       <c r="R90" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,28 +5644,28 @@
         <v>1</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.299565496468802</v>
+        <v>0.155743968539467</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>0.221631900860291</v>
+        <v>0.399630181138236</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N91" s="0" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="O91" s="0" t="n">
-        <v>0.0321786671872719</v>
+        <v>0.0333477957200892</v>
       </c>
       <c r="P91" s="0" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="Q91" s="0" t="n">
-        <v>20470000</v>
+        <v>23714000</v>
       </c>
       <c r="R91" s="0" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,28 +5700,28 @@
         <v>1</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.0979448420219123</v>
+        <v>0.0502911429055966</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.902664149897173</v>
+        <v>0.485164121137932</v>
       </c>
       <c r="M92" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N92" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0.0325018251685833</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>23334000</v>
+      </c>
+      <c r="R92" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>0.0543592034318135</v>
-      </c>
-      <c r="P92" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="Q92" s="0" t="n">
-        <v>19756000</v>
-      </c>
-      <c r="R92" s="0" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,28 +5756,28 @@
         <v>1</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.111507637196337</v>
+        <v>0.010080852475653</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.470605112481862</v>
+        <v>0.45244400182389</v>
       </c>
       <c r="M93" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N93" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O93" s="0" t="n">
-        <v>0.061694712342578</v>
+        <v>0.0125556523699552</v>
       </c>
       <c r="P93" s="0" t="n">
-        <v>64</v>
+        <v>2491</v>
       </c>
       <c r="Q93" s="0" t="n">
-        <v>19384000</v>
+        <v>23322000</v>
       </c>
       <c r="R93" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,28 +5812,28 @@
         <v>1</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.258878008593572</v>
+        <v>0.0140193860833344</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.825351367639378</v>
+        <v>0.200112907253382</v>
       </c>
       <c r="M94" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N94" s="0" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="O94" s="0" t="n">
-        <v>0.0412559372014948</v>
+        <v>0.0126101129546173</v>
       </c>
       <c r="P94" s="0" t="n">
-        <v>12</v>
+        <v>2100</v>
       </c>
       <c r="Q94" s="0" t="n">
-        <v>19074000</v>
+        <v>23288000</v>
       </c>
       <c r="R94" s="0" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,28 +5868,28 @@
         <v>1</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.271928988516098</v>
+        <v>0.0644160604977514</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.636610471885651</v>
+        <v>0.689844294879586</v>
       </c>
       <c r="M95" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N95" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O95" s="0" t="n">
-        <v>0.0452964635155513</v>
+        <v>0.036056842396647</v>
       </c>
       <c r="P95" s="0" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="Q95" s="0" t="n">
-        <v>18344000</v>
+        <v>23118000</v>
       </c>
       <c r="R95" s="0" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,28 +5924,28 @@
         <v>1</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.0705146063114516</v>
+        <v>0.298998284315792</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.994869647705928</v>
+        <v>0.200090400674303</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O96" s="0" t="n">
-        <v>0.057258226773071</v>
+        <v>0.0188130586692226</v>
       </c>
       <c r="P96" s="0" t="n">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="Q96" s="0" t="n">
-        <v>17984000</v>
+        <v>22982000</v>
       </c>
       <c r="R96" s="0" t="n">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,28 +5980,28 @@
         <v>1</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.0102492336699926</v>
+        <v>0.206353757876088</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.993721217808846</v>
+        <v>0.386798960790038</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O97" s="0" t="n">
-        <v>0.0665505320646441</v>
+        <v>0.0255742628669638</v>
       </c>
       <c r="P97" s="0" t="n">
-        <v>357</v>
+        <v>15</v>
       </c>
       <c r="Q97" s="0" t="n">
-        <v>17852000</v>
+        <v>22950000</v>
       </c>
       <c r="R97" s="0" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,28 +6036,28 @@
         <v>1</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.145537148697069</v>
+        <v>0.0104942547579821</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.419066673005</v>
+        <v>0.201905397184417</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O98" s="0" t="n">
-        <v>0.0650793320160301</v>
+        <v>0.0380265151765598</v>
       </c>
       <c r="P98" s="0" t="n">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="Q98" s="0" t="n">
-        <v>17676000</v>
+        <v>22752000</v>
       </c>
       <c r="R98" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,28 +6092,28 @@
         <v>1</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.195527017994318</v>
+        <v>0.0643813462881371</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.231733846599236</v>
+        <v>0.652664288682863</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>0.0518396693695104</v>
+        <v>0.0420094891412494</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="Q99" s="0" t="n">
-        <v>17426000</v>
+        <v>22488000</v>
       </c>
       <c r="R99" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,28 +6148,28 @@
         <v>1</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.296944927323646</v>
+        <v>0.170502649910864</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.950590287348015</v>
+        <v>0.877436125446111</v>
       </c>
       <c r="M100" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O100" s="0" t="n">
-        <v>0.0666167008073096</v>
+        <v>0.0383989047701956</v>
       </c>
       <c r="P100" s="0" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q100" s="0" t="n">
-        <v>16866000</v>
+        <v>22488000</v>
       </c>
       <c r="R100" s="0" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,28 +6204,28 @@
         <v>1</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.0285140561693115</v>
+        <v>0.137266048859223</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.286125178607181</v>
+        <v>0.260518944691867</v>
       </c>
       <c r="M101" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>0.0273357214443968</v>
+      </c>
+      <c r="P101" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O101" s="0" t="n">
-        <v>0.0481755744817201</v>
-      </c>
-      <c r="P101" s="0" t="n">
-        <v>76</v>
-      </c>
       <c r="Q101" s="0" t="n">
-        <v>14754000</v>
+        <v>22352000</v>
       </c>
       <c r="R101" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,28 +6260,28 @@
         <v>1</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.155678277339786</v>
+        <v>0.231603562741191</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.591858506696299</v>
+        <v>0.354244734430686</v>
       </c>
       <c r="M102" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N102" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O102" s="0" t="n">
-        <v>0.0601138815230418</v>
+        <v>0.019753100961049</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>8</v>
       </c>
       <c r="Q102" s="0" t="n">
-        <v>14258000</v>
+        <v>22334000</v>
       </c>
       <c r="R102" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,28 +6316,28 @@
         <v>1</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.0101872062959764</v>
+        <v>0.299948513863082</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.200190326165026</v>
+        <v>0.999975809335457</v>
       </c>
       <c r="M103" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N103" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O103" s="0" t="n">
-        <v>0.0246242059690725</v>
+        <v>0.0374607548018055</v>
       </c>
       <c r="P103" s="0" t="n">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Q103" s="0" t="n">
-        <v>11416000</v>
+        <v>22270000</v>
       </c>
       <c r="R103" s="0" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,27 +6372,1147 @@
         <v>1</v>
       </c>
       <c r="K104" s="0" t="n">
+        <v>0.299991704473393</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0.401601607243915</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>0.012526415008278</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <v>22048000</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0.299975459429474</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>0.200419043523092</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>0.0154703800276314</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>21514000</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>0.286563551961328</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>0.645744434520602</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>0.0178993275910519</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>20928000</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>0.254939808345749</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>0.522397442366928</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>0.0429847246182423</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>20770000</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>0.153774041322758</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>0.832053191736341</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>0.0382495545902445</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>20582000</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>0.27796680620301</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>0.747589869266376</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>0.0457778409965491</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <v>20580000</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>0.299565496468802</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>0.221631900860291</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>0.0321786671872719</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <v>20470000</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>0.0979448420219123</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0.902664149897173</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <v>0.0543592034318135</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <v>19756000</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>0.299895986292472</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>0.903709256714984</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>0.036624969470689</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <v>19694000</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>0.111507637196337</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>0.470605112481862</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>0.061694712342578</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <v>19384000</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>0.258878008593572</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>0.825351367639378</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>0.0412559372014948</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>19074000</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>0.271928988516098</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>0.636610471885651</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>0.0452964635155513</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>18344000</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>0.0705146063114516</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>0.994869647705928</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>0.057258226773071</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>17984000</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>0.0102492336699926</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>0.993721217808846</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>0.0665505320646441</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>357</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>17852000</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>0.145537148697069</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>0.419066673005</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>0.0650793320160301</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>17676000</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>0.195527017994318</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>0.231733846599236</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>0.0518396693695104</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>17426000</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>0.296944927323646</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>0.950590287348015</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>0.0666167008073096</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>16866000</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>0.0285140561693115</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0.286125178607181</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>0.0481755744817201</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>14754000</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>0.155678277339786</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.591858506696299</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>0.0601138815230418</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>14258000</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>0.0101872062959764</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.200190326165026</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>0.0246242059690725</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>11416000</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="0" t="n">
         <v>0.215816772262217</v>
       </c>
-      <c r="L104" s="0" t="n">
+      <c r="L124" s="0" t="n">
         <v>0.950882313605398</v>
       </c>
-      <c r="M104" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="0" t="n">
+      <c r="M124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="O104" s="0" t="n">
+      <c r="O124" s="0" t="n">
         <v>0.0213466519934203</v>
       </c>
-      <c r="P104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="0" t="n">
+      <c r="P124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="0" t="n">
         <v>4316000</v>
       </c>
-      <c r="R104" s="0" t="n">
+      <c r="R124" s="0" t="n">
         <v>19</v>
       </c>
     </row>
